--- a/biology/Zoologie/Avocette_des_Andes/Avocette_des_Andes.xlsx
+++ b/biology/Zoologie/Avocette_des_Andes/Avocette_des_Andes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Recurvirostra andina
 L'Avocette des Andes (Recurvirostra andina) est une espèce d'oiseaux limicoles de la famille des Recurvirostridae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est un petit limicole plutôt trapu. Son plumage est bicolore: ailes, dos et queue brun-noir, le reste du plumage est blanc. Les yeux sont rougeâtres. Le bec noir est typique des avocettes, fin et recourbé vers le haut à l'extrémité. Les pattes sont grises. Cet oiseau mesure 43 à 48 cm.
 </t>
@@ -543,7 +557,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce fréquente les lacs (généralement alcalins) et les cours d'eau peu profonds de hautes montagnes (au-dessus de 3 500 m) en zones arides. Comme son nom l'indique, elle est présente dans les Andes : Nord-ouest de l'Argentine, ouest de la Bolivie, Nord du Chili et sud du Pérou. Elle sonde l'eau ou la boue à la recherche d'insectes aquatiques et de crustacés.
 </t>
